--- a/Gantt-Charts/Gantt Chart.xlsx
+++ b/Gantt-Charts/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kinka Sugimoto\Pictures\school notes stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0B3F34-EBB2-4CAF-BC2B-AF20BFE5F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60692A45-4363-472F-8822-C8423F2994CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Members:</t>
   </si>
@@ -107,9 +107,6 @@
     <t>2. Making of UI/UX in Figma</t>
   </si>
   <si>
-    <t>To-do</t>
-  </si>
-  <si>
     <t>Kinka B. Sugimoto &amp; Felraine Kyle A. Cataos</t>
   </si>
   <si>
@@ -117,6 +114,33 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>2.1.1 Wireframe Dashboard Screen</t>
+  </si>
+  <si>
+    <t>2.1.2 Wireframe Login/Signup Screen</t>
+  </si>
+  <si>
+    <t>2.1.3 Wireframe Calendar Screen</t>
+  </si>
+  <si>
+    <t>2.1.3 Wireframe Members List Screen</t>
+  </si>
+  <si>
+    <t>2.2 Design UI/UX Screens</t>
+  </si>
+  <si>
+    <t>2.2.1 Design UI/UX  Dashboard Screen</t>
+  </si>
+  <si>
+    <t>2.2.2 Design UI/UX  Login/Signup Screen</t>
+  </si>
+  <si>
+    <t>2.2.3 Design UI/UX  Calendar Screen</t>
+  </si>
+  <si>
+    <t>2.2.4 Design UI/UX Members List Screen</t>
   </si>
 </sst>
 </file>
@@ -229,14 +253,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,10 +276,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,46 +575,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A2:Q25"/>
+  <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="3" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,50 +623,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -699,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -720,7 +740,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -737,8 +757,8 @@
         <v>4</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -748,7 +768,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -766,8 +786,8 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -777,7 +797,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -795,8 +815,8 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -806,12 +826,12 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="8">
         <v>45537</v>
@@ -826,8 +846,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -835,7 +855,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -858,107 +878,147 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45551</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45567</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45551</v>
+      </c>
+      <c r="D22" s="8">
+        <v>45567</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45551</v>
+      </c>
+      <c r="D23" s="8">
+        <v>45567</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45551</v>
+      </c>
+      <c r="D24" s="8">
+        <v>45567</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -975,6 +1035,160 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45558</v>
+      </c>
+      <c r="D26" s="8">
+        <v>45578</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45558</v>
+      </c>
+      <c r="D27" s="8">
+        <v>45578</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45558</v>
+      </c>
+      <c r="D28" s="8">
+        <v>45578</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="8">
+        <v>45558</v>
+      </c>
+      <c r="D29" s="8">
+        <v>45578</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -995,15 +1209,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090963452E5C2C042B041AF470BA93640" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ca0b7bbaf8d0b986f16e13111c0a7af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d200a8f-da15-4041-84a3-84e619b2b443" xmlns:ns4="f1e22084-4c76-4da6-a67a-6aa4f52fcf92" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fa522124edc98f7e5221c7cb00ca67" ns3:_="" ns4:_="">
     <xsd:import namespace="2d200a8f-da15-4041-84a3-84e619b2b443"/>
@@ -1250,6 +1455,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>
@@ -1268,14 +1482,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF2035A-45FE-41E6-A8D6-A6BCC32E3F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1292,4 +1498,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gantt-Charts/Gantt Chart.xlsx
+++ b/Gantt-Charts/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felra\OneDrive\Documents\School Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60692A45-4363-472F-8822-C8423F2994CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{801D0B41-142C-4779-B5F3-14EC168C1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Members:</t>
   </si>
@@ -141,6 +141,27 @@
   </si>
   <si>
     <t>2.2.4 Design UI/UX Members List Screen</t>
+  </si>
+  <si>
+    <t>3. Coding Frontend with Backend Integration</t>
+  </si>
+  <si>
+    <t>3.1 Login Screen</t>
+  </si>
+  <si>
+    <t>3.2 Dashboard Screen</t>
+  </si>
+  <si>
+    <t>3.3 Calendar Screen</t>
+  </si>
+  <si>
+    <t>3.4 Members List Screen</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -209,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,11 +253,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +317,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A2:Q31"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,54 +1225,369 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="F30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>3</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>2</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45578</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45578</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8">
+        <v>45578</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45578</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1456,27 +1838,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1501,9 +1873,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gantt-Charts/Gantt Chart.xlsx
+++ b/Gantt-Charts/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felra\OneDrive\Documents\School Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{801D0B41-142C-4779-B5F3-14EC168C1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27CE46C-98CE-47ED-A0FE-3401A6A98493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
   <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1300,13 +1300,13 @@
         <v>45578</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
+      <c r="E32" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1331,10 +1331,9 @@
         <v>3</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -1355,13 +1354,13 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -1382,14 +1381,13 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -1582,12 +1580,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1838,17 +1835,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1873,18 +1880,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gantt-Charts/Gantt Chart.xlsx
+++ b/Gantt-Charts/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felra\OneDrive\Documents\School Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27CE46C-98CE-47ED-A0FE-3401A6A98493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5C9B0-FE42-4C50-8724-DF680E208D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Members:</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>3.5 Meeting Functionality</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,12 +223,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,8 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
   <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,24 +709,24 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -824,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="10"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -853,7 +848,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="10"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -882,7 +877,7 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="10"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1225,24 +1220,24 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="16" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="16" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="18"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -1299,7 +1294,9 @@
       <c r="C32" s="8">
         <v>45578</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8">
+        <v>45628</v>
+      </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
@@ -1326,18 +1323,20 @@
       <c r="C33" s="8">
         <v>45578</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="8">
+        <v>45628</v>
+      </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="3"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -1352,19 +1351,21 @@
       <c r="C34" s="8">
         <v>45578</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8">
+        <v>45628</v>
+      </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -1379,36 +1380,49 @@
       <c r="C35" s="8">
         <v>45578</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="8">
+        <v>45628</v>
+      </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="3"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45623</v>
+      </c>
+      <c r="D36" s="8">
+        <v>45623</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
